--- a/Projects/MARSRU_PROD/Data/2019/KPIs to SQL.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/KPIs to SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="133">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -396,7 +396,31 @@
     <t xml:space="preserve">В магазине тип выкладки А</t>
   </si>
   <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке  БЕЗ Liter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля полки Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU Другие производители </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите количество SKU MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля ассортимента  Других производителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSS Другие производители </t>
+  </si>
+  <si>
     <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)</t>
   </si>
 </sst>
 </file>
@@ -411,6 +435,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,18 +457,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -519,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -628,6 +656,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -705,17 +741,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="286.454081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6005,6 +6043,278 @@
       <c r="K143" s="1" t="str">
         <f aca="false">CONCATENATE(F143,E143,G143,A143,H143,A143,I143,D143,J143)</f>
         <v>('1279', NULL, '4704', '4704', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="27" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f aca="false">IF(EXACT(C145,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="1" t="str">
+        <f aca="false">CONCATENATE(F145,E145,G145,A145,H145,A145,I145,D145,J145)</f>
+        <v>('1430', NULL, '1010', '1010', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f aca="false">IF(EXACT(C146,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="1" t="str">
+        <f aca="false">CONCATENATE(F146,E146,G146,A146,H146,A146,I146,D146,J146)</f>
+        <v>('1431', NULL, '1011', '1011', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="27" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f aca="false">IF(EXACT(C147,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="1" t="str">
+        <f aca="false">CONCATENATE(F147,E147,G147,A147,H147,A147,I147,D147,J147)</f>
+        <v>('1432', NULL, '1013', '1013', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f aca="false">IF(EXACT(C148,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="1" t="str">
+        <f aca="false">CONCATENATE(F148,E148,G148,A148,H148,A148,I148,D148,J148)</f>
+        <v>('1433', NULL, '1012', '1012', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="27" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f aca="false">IF(EXACT(C149,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="1" t="str">
+        <f aca="false">CONCATENATE(F149,E149,G149,A149,H149,A149,I149,D149,J149)</f>
+        <v>('1434', NULL, '1014', '1014', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f aca="false">IF(EXACT(C150,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="1" t="str">
+        <f aca="false">CONCATENATE(F150,E150,G150,A150,H150,A150,I150,D150,J150)</f>
+        <v>('1435', NULL, '1015', '1015', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="27" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f aca="false">IF(EXACT(C151,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="1" t="str">
+        <f aca="false">CONCATENATE(F151,E151,G151,A151,H151,A151,I151,D151,J151)</f>
+        <v>('1436', NULL, '1016', '1016', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>
@@ -6023,17 +6333,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K120" activeCellId="0" sqref="K120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K145" activeCellId="0" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8037,7 +8347,7 @@
         <v>2219</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>20</v>
@@ -10035,7 +10345,7 @@
         <v>4219</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>20</v>
@@ -11325,10 +11635,282 @@
         <v>('2279', NULL, '4704-RUS', '4704 - В магазине тип выкладки А', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
       </c>
     </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="27" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f aca="false">IF(EXACT(C145,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="1" t="str">
+        <f aca="false">CONCATENATE(F145,E145,G145,CONCATENATE(A145,"-RUS"),H145,CONCATENATE(A145," - ",B145),I145,D145,J145)</f>
+        <v>('2430', NULL, '1010-RUS', '1010 - Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="27" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f aca="false">IF(EXACT(C146,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>2431</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="1" t="str">
+        <f aca="false">CONCATENATE(F146,E146,G146,CONCATENATE(A146,"-RUS"),H146,CONCATENATE(A146," - ",B146),I146,D146,J146)</f>
+        <v>('2431', NULL, '1011-RUS', '1011 - Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий собаки (включая лакомства на основной полке)', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="27" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f aca="false">IF(EXACT(C147,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>2432</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="1" t="str">
+        <f aca="false">CONCATENATE(F147,E147,G147,CONCATENATE(A147,"-RUS"),H147,CONCATENATE(A147," - ",B147),I147,D147,J147)</f>
+        <v>('2432', NULL, '1013-RUS', '1013 - Доля полки Других производителей', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="1" t="str">
+        <f aca="false">IF(EXACT(C148,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>2433</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="1" t="str">
+        <f aca="false">CONCATENATE(F148,E148,G148,CONCATENATE(A148,"-RUS"),H148,CONCATENATE(A148," - ",B148),I148,D148,J148)</f>
+        <v>('2433', NULL, '1012-RUS', '1012 - Укажите количество SKU Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="27" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="1" t="str">
+        <f aca="false">IF(EXACT(C149,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>2434</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="1" t="str">
+        <f aca="false">CONCATENATE(F149,E149,G149,CONCATENATE(A149,"-RUS"),H149,CONCATENATE(A149," - ",B149),I149,D149,J149)</f>
+        <v>('2434', NULL, '1014-RUS', '1014 - Укажите количество SKU MARS', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="str">
+        <f aca="false">IF(EXACT(C150,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>2435</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="1" t="str">
+        <f aca="false">CONCATENATE(F150,E150,G150,CONCATENATE(A150,"-RUS"),H150,CONCATENATE(A150," - ",B150),I150,D150,J150)</f>
+        <v>('2435', NULL, '1015-RUS', '1015 - Доля ассортимента  Других производителей', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="27" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="str">
+        <f aca="false">IF(EXACT(C151,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>2436</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="1" t="str">
+        <f aca="false">CONCATENATE(F151,E151,G151,CONCATENATE(A151,"-RUS"),H151,CONCATENATE(A151," - ",B151),I151,D151,J151)</f>
+        <v>('2436', NULL, '1016-RUS', '1016 - PSS Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Projects/MARSRU_PROD/Data/2019/KPIs to SQL.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/KPIs to SQL.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="137">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t xml:space="preserve">PSS Другие производители </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите тип ДМП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проходит ли с данного дисплея промо активность?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите общее количество фейсингов Марс на ДМП (кол-во фейсингов из цены мотивационная программа)</t>
   </si>
   <si>
     <t xml:space="preserve">Категория товаров для животных примыкает к ПРОМО АЛЛЕЕ, находится дальше 5-ти метров от входа и визуально доступна покупателям по ходу их движения без необходимости оборачиваться</t>
@@ -741,19 +753,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D166" activeCellId="0" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="286.454081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="283.34693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6315,6 +6329,154 @@
       <c r="K151" s="1" t="str">
         <f aca="false">CONCATENATE(F151,E151,G151,A151,H151,A151,I151,D151,J151)</f>
         <v>('1436', NULL, '1016', '1016', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="27" t="n">
+        <v>10011</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" s="1" t="str">
+        <f aca="false">IF(EXACT(C153,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="1" t="str">
+        <f aca="false">CONCATENATE(F153,E153,G153,A153,H153,A153,I153,D153,J153)</f>
+        <v>('1437', NULL, '10011', '10011', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="27" t="n">
+        <v>10012</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1" t="str">
+        <f aca="false">IF(EXACT(C154,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>1438</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="1" t="str">
+        <f aca="false">CONCATENATE(F154,E154,G154,A154,H154,A154,I154,D154,J154)</f>
+        <v>('1438', NULL, '10012', '10012', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="27" t="n">
+        <v>10014</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="1" t="str">
+        <f aca="false">IF(EXACT(C155,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="1" t="str">
+        <f aca="false">CONCATENATE(F155,E155,G155,A155,H155,A155,I155,D155,J155)</f>
+        <v>('1439', NULL, '10014', '10014', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="27" t="n">
+        <v>10013</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="1" t="str">
+        <f aca="false">IF(EXACT(C156,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" s="1" t="str">
+        <f aca="false">CONCATENATE(F156,E156,G156,A156,H156,A156,I156,D156,J156)</f>
+        <v>('1440', NULL, '10013', '10013', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>
@@ -6333,17 +6495,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K145" activeCellId="0" sqref="K145"/>
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8347,7 +8509,7 @@
         <v>2219</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>20</v>
@@ -10345,7 +10507,7 @@
         <v>4219</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>20</v>
@@ -11653,7 +11815,7 @@
         <v>1010</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
@@ -11905,6 +12067,154 @@
       <c r="K151" s="1" t="str">
         <f aca="false">CONCATENATE(F151,E151,G151,CONCATENATE(A151,"-RUS"),H151,CONCATENATE(A151," - ",B151),I151,D151,J151)</f>
         <v>('2436', NULL, '1016-RUS', '1016 - PSS Другие производители ', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="27" t="n">
+        <v>10011</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" s="1" t="str">
+        <f aca="false">IF(EXACT(C153,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>2732</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="1" t="str">
+        <f aca="false">CONCATENATE(F153,E153,G153,CONCATENATE(A153,"-RUS"),H153,CONCATENATE(A153," - ",B153),I153,D153,J153)</f>
+        <v>('2732', NULL, '10011-RUS', '10011 - Выберите тип ДМП', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="27" t="n">
+        <v>10012</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1" t="str">
+        <f aca="false">IF(EXACT(C154,"Boolean"),"'10'","NULL")</f>
+        <v>'10'</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>2733</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="1" t="str">
+        <f aca="false">CONCATENATE(F154,E154,G154,CONCATENATE(A154,"-RUS"),H154,CONCATENATE(A154," - ",B154),I154,D154,J154)</f>
+        <v>('2733', NULL, '10012-RUS', '10012 - Проходит ли с данного дисплея промо активность?', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0','10'),</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="27" t="n">
+        <v>10014</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="1" t="str">
+        <f aca="false">IF(EXACT(C155,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>2734</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="1" t="str">
+        <f aca="false">CONCATENATE(F155,E155,G155,CONCATENATE(A155,"-RUS"),H155,CONCATENATE(A155," - ",B155),I155,D155,J155)</f>
+        <v>('2734', NULL, '10014-RUS', '10014 - Укажите общее количество фейсингов Марс на ДМП (кол-во фейсингов из цены мотивационная программа)', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="27" t="n">
+        <v>10013</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="1" t="str">
+        <f aca="false">IF(EXACT(C156,"Boolean"),"'10'","NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>2735</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" s="1" t="str">
+        <f aca="false">CONCATENATE(F156,E156,G156,CONCATENATE(A156,"-RUS"),H156,CONCATENATE(A156," - ",B156),I156,D156,J156)</f>
+        <v>('2735', NULL, '10013-RUS', '10013 - Выберите тип ДМП', '20', '3', '5', 'Custom', '3', '1', '0', '0', '0', '0', '0',NULL),</v>
       </c>
     </row>
   </sheetData>
